--- a/Files/Vaccine_January 6, 2012.xlsx
+++ b/Files/Vaccine_January 6, 2012.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="307">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Tripedia</t>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">$21.44</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">$70.72</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">$80.43</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -185,7 +185,7 @@
     <t xml:space="preserve">200-2011 -38199</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Hib [3]</t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">Comvax</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">200-2011-38200</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -257,8 +257,7 @@
     <t xml:space="preserve">$89.85</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -276,8 +275,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -289,7 +287,7 @@
     <t xml:space="preserve">$23.20</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -328,7 +326,7 @@
     <t xml:space="preserve">$22.83</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant [5]</t>
+    <t xml:space="preserve">HPV - Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil</t>
@@ -343,7 +341,7 @@
     <t xml:space="preserve">$130.27</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV -Bivalent Human Papillomavirus Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">Cervarix</t>
@@ -361,7 +359,7 @@
     <t xml:space="preserve">$128.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -394,7 +392,7 @@
     <t xml:space="preserve">200-2011-38204</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">MMRII</t>
@@ -409,8 +407,7 @@
     <t xml:space="preserve">$50.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -449,7 +446,7 @@
     <t xml:space="preserve">$56.313</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -473,7 +470,7 @@
     <t xml:space="preserve">25 pack - 1 dose 2mL tubes</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -488,7 +485,7 @@
     <t xml:space="preserve">$102.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Decavac</t>
@@ -497,8 +494,7 @@
     <t xml:space="preserve">49281-0291-10</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">$16.50</t>
@@ -525,7 +521,7 @@
     <t xml:space="preserve">200-2011-38202</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -543,8 +539,7 @@
     <t xml:space="preserve">58160-0842-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose TL syringes,
-No Needle</t>
+    <t xml:space="preserve">10 pack - 1 dose TL syringes, No Needle</t>
   </si>
   <si>
     <t xml:space="preserve">Adacel</t>
@@ -562,7 +557,7 @@
     <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -577,7 +572,7 @@
     <t xml:space="preserve">$83.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -598,13 +593,13 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$43.48</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX-B</t>
@@ -640,13 +635,13 @@
     <t xml:space="preserve">1 pack- single dose vial</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult [5]</t>
+    <t xml:space="preserve">HPV -Quadrivalent Human Papillomavirus Types 6, 11, 16 and 18 Recombinant Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$93.383</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus Bivalent Types 16 and 18 </t>
   </si>
   <si>
     <t xml:space="preserve">5 pack - 1 dose T-L syringe, No Needle</t>
@@ -655,7 +650,7 @@
     <t xml:space="preserve">$85.64</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$35.772</t>
@@ -688,7 +683,7 @@
     <t xml:space="preserve">10 pack - 1 dose TL syringes</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$58.575</t>
@@ -730,7 +725,7 @@
     <t xml:space="preserve">$9.661</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$65.52</t>
@@ -742,8 +737,7 @@
     <t xml:space="preserve">200-2011-39590</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -761,13 +755,10 @@
     <t xml:space="preserve">200-2011-38140</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0111-25</t>
@@ -782,12 +773,10 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0011-50</t>
@@ -802,15 +791,13 @@
     <t xml:space="preserve">49281-0011-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0878-52</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack- 1 dose
-TipLok syringe</t>
+    <t xml:space="preserve">10 pack- 1 dose TipLok syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$8.90</t>
@@ -822,8 +809,7 @@
     <t xml:space="preserve">200-2011-38141</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -841,8 +827,7 @@
     <t xml:space="preserve">200-2011-38142</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluvirin
-Preservative Free</t>
+    <t xml:space="preserve">Fluvirin Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">66521-0114-02</t>
@@ -857,12 +842,10 @@
     <t xml:space="preserve">$13.60</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0109-10</t>
@@ -883,35 +866,27 @@
     <t xml:space="preserve">200-2011-38143</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0011-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$11.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Merck
-(CSL product)</t>
+    <t xml:space="preserve">Merck (CSL product)</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38139</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 9 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Afluria</t>
   </si>
   <si>
@@ -930,22 +905,16 @@
     <t xml:space="preserve">200-2011-38145</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-No Preservative</t>
+    <t xml:space="preserve">Fluzone No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">200-2011-38147</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
-  </si>
-  <si>
     <t xml:space="preserve">200-2011-38146</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5, 6]
-(Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">FluLaval</t>
@@ -2830,11 +2799,8 @@
       <c r="A20" t="s">
         <v>233</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>234</v>
-      </c>
-      <c r="C20" t="s">
-        <v>166</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -3192,22 +3158,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
         <v>290</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>292</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>294</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
       </c>
       <c r="G11" s="1">
         <v>40968</v>
@@ -3290,7 +3256,7 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
@@ -3298,7 +3264,7 @@
         <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" t="s">
         <v>254</v>
@@ -3319,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
@@ -3327,7 +3293,7 @@
         <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" t="s">
         <v>257</v>
@@ -3348,7 +3314,7 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
@@ -3377,12 +3343,12 @@
         <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>270</v>
@@ -3406,7 +3372,7 @@
         <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7">
@@ -3435,27 +3401,27 @@
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
         <v>301</v>
-      </c>
-      <c r="B8" t="s">
-        <v>302</v>
-      </c>
-      <c r="C8" t="s">
-        <v>303</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G8" s="1">
         <v>40968</v>
@@ -3464,7 +3430,7 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
@@ -3478,7 +3444,7 @@
         <v>277</v>
       </c>
       <c r="D9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E9" t="s">
         <v>279</v>
@@ -3493,7 +3459,7 @@
         <v>281</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10">
@@ -3522,27 +3488,27 @@
         <v>288</v>
       </c>
       <c r="I10" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
         <v>290</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>292</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>293</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>294</v>
-      </c>
-      <c r="F11" t="s">
-        <v>295</v>
       </c>
       <c r="G11" s="1">
         <v>40968</v>
@@ -3551,7 +3517,7 @@
         <v>288</v>
       </c>
       <c r="I11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
